--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3817.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3817.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.558462355837212</v>
+        <v>6.928617000579834</v>
       </c>
       <c r="B1">
-        <v>2.035416887341773</v>
+        <v>5.383649826049805</v>
       </c>
       <c r="C1">
-        <v>3.164185613602921</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.495183247794827</v>
+        <v>4.56832218170166</v>
       </c>
       <c r="E1">
-        <v>0.5928116301294099</v>
+        <v>2.198020696640015</v>
       </c>
     </row>
   </sheetData>
